--- a/data/Test data.xlsx
+++ b/data/Test data.xlsx
@@ -1,31 +1,1156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>one</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="375">
+  <si>
+    <t>bosch</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>IRCTC</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Qspiders</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>org</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>indType</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>BOSCH</t>
+  </si>
+  <si>
+    <t>L&amp;T</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=nav_logo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/customer-preferences/edit?ie=UTF8&amp;preferencesReturnUrl=%2F&amp;ref_=topnav_lang</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_ya_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/order-history?ref_=nav_orders_first</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/cart/view.html?ref_=nav_cart</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/register?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3F_encoding%3DUTF8%26ref_%3Dnav_newcust&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/wishlist/ls?triggerElementID=createList&amp;ref_=nav_ListFlyout_navFlyout_createList_lv_redirect</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/wishlist/universal?ref_=nav_ListFlyout_gno_listpop_uwl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/baby-reg/homepage?ref_=nav_ListFlyout_gno_listpop_br</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/discover/?ref_=nav_ListFlyout_sbl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/showroom?ref_=nav_ListFlyout_srm_your_desk_wl_in</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/homepage.html?ref_=nav_AccountFlyout_ya</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/order-history?ref_=nav_AccountFlyout_orders</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/wishlist/ls?requiresSignIn=1&amp;ref_=nav_AccountFlyout_wl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/yourstore?ref_=nav_AccountFlyout_recs</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/primecentral?ref_=nav_AccountFlyout_prime</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/redirect.html?location=https%3A%2F%2Fwww.primevideo.com%2F%3Fref_%3D_apv&amp;source=nav_linktree&amp;token=13D4F90D28CD96790B94E6091246BB1B2AE9FA05</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/auto-deliveries?ref_=nav_AccountFlyout_sns</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz5/yourmembershipsandsubscriptions?ref_=nav_AccountFlyout_digital_subscriptions</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/gc/balance?ref_=nav_item_yourgcbalance</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=21102587031&amp;ref_=nav_ya_flyout_b2b_reg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=2838698031&amp;ld=AZINSOAYAFlyout&amp;ref_=nav_AccountFlyout_sell</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/hz/mycd/myx?ref_=nav_AccountFlyout_myk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3Fref_%3Dnav_custrec_signin&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ap/register?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.in%2F%3F_encoding%3DUTF8%26ref_%3Dnav_custrec_newcust&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=inflex&amp;openid.mode=checkid_setup&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0&amp;</t>
+  </si>
+  <si>
+    <t>javascript: void(0)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/bestsellers/?ref_=nav_cs_bestsellers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/mobile-phones/b/?ie=UTF8&amp;node=1389401031&amp;ref_=nav_cs_mobiles</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200507590&amp;ref_=nav_cs_help</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deals?ref_=nav_cs_gb</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=6648217031&amp;ref_=nav_cs_fashion</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/electronics/b/?ie=UTF8&amp;node=976419031&amp;ref_=nav_cs_electronics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/prime?ref_=nav_cs_primelink_nonmember</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Home-Kitchen/b/?ie=UTF8&amp;node=976442031&amp;ref_=nav_cs_home</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/new-releases/?ref_=nav_cs_newreleases</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/sva/dashboard?ref_=nav_cs_apay</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/computers-and-accessories/b/?ie=UTF8&amp;node=976392031&amp;ref_=nav_cs_pc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Books/b/?ie=UTF8&amp;node=976389031&amp;ref_=nav_cs_books</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/amazon-coupons/b/?_encoding=UTF8&amp;node=10465704031&amp;ref_=nav_cs_coupons</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Toys-Games/b/?ie=UTF8&amp;node=1350380031&amp;ref_=nav_cs_toys</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=2838698031&amp;ld=AZINSOANavDesktop&amp;ref_=nav_cs_sell</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Gourmet-Specialty-Foods/b/?ie=UTF8&amp;node=2454178031&amp;ref_=nav_cs_grocery</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gift-card-store/b/?ie=UTF8&amp;node=3704982031&amp;ref_=nav_cs_gc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Car-Motorbike-Store/b/?ie=UTF8&amp;node=4772060031&amp;ref_=nav_cs_automotive</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/beauty/b/?ie=UTF8&amp;node=1355016031&amp;ref_=nav_cs_beauty</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sports/b/?ie=UTF8&amp;node=1984443031&amp;ref_=nav_cs_sports</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/video-games/b/?ie=UTF8&amp;node=976460031&amp;ref_=nav_cs_video_games</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/health-and-personal-care/b/?ie=UTF8&amp;node=1350384031&amp;ref_=nav_cs_hpc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Baby/b/?ie=UTF8&amp;node=1571274031&amp;ref_=nav_cs_baby</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pet-Supplies/b/?ie=UTF8&amp;node=2454181031&amp;ref_=nav_cs_pets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=3704992031&amp;ref_=nav_cs_hi</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gcx/-/gfhz/?ref_=nav_cs_giftfinder</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kindle-eBooks/b/?ie=UTF8&amp;node=1634753031&amp;ref_=nav_cs_kindle_books</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=6637738031&amp;ref_=nav_cs_amazonbasics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Audible-Books-and-Originals/b/?ie=UTF8&amp;node=17941593031&amp;ref_=nav_cs_audible</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/auto-deliveries/landing?ref_=nav_cs_sns</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/#</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=14929320031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/events/summersale/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=976419031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=976442031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09GFPVD9Y/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28178903031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1389401031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/ref=mega_sv_s23_2_1_1_1?rh=i%3Aapparel%2Cn%3A1968024031&amp;ie=UTF8&amp;lo=apparel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1983518031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=2563504031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=2454169031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=sl_gw_feb20?node=6648217031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=976419031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?rh=n%3A2083408031%2Cp_n_condition-type%3A8609960031&amp;bbn=2083408031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/28169924031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/28169926031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?rh=n%3A4286644031%2Cp_n_condition-type%3A8609960031&amp;bbn=4286644031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=mayart_hi_PCQC?node=4286640031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=pbLATV?node=26190167031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=pbHK?node=21868698031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=pbDE?ie=UTF8&amp;node=28185942031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=fashion&amp;bbn=27405914031&amp;rh=n%3A27405914031%2Cp_36%3A-49999&amp;s=review-rank</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=Seeall?node=15390370031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/14351766031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B09X7K3QSC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/21703586031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B08R6NFZ6R</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=20960048031&amp;rh=n%3A20960048031%2Cp_72%3A1318477031&amp;pf_rd_i=28067455031&amp;pf_rd_m=A1K21FY43GMZF8&amp;pf_rd_p=f789fa4f-5952-4886-9b3c-2a88b2b3af52&amp;pf_rd_r=S8M3X8N9596N2SFB5G8N&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_t=101&amp;ref=s9_acss_bw_cg_breakhtw_2b1_w</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=20960049031&amp;rh=n%3A20960049031%2Cp_72%3A1318477031&amp;pf_rd_i=28067455031&amp;pf_rd_m=A1K21FY43GMZF8&amp;pf_rd_p=f789fa4f-5952-4886-9b3c-2a88b2b3af52&amp;pf_rd_r=S8M3X8N9596N2SFB5G8N&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_t=101&amp;ref=s9_acss_bw_cg_breakhtw_2a1_w</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=kitchen&amp;bbn=1380162031&amp;rh=n%3A976442031%2Cn%3A%21976443031%2Cn%3A5925789031%2Cn%3A1380098031%2Cn%3A1380162031%2Cp_72%3A1318477031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?bbn=13956517031&amp;rh=n%3A13956517031%2Cp_72%3A1318477031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27930352031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/realme-narzo-Carbon-Black-Storage/dp/B09FKGDJNC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Redmi-9A-Sport-Octa-core-Processor/dp/B09GFM8CGS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/db4d03a4?showVariations=true</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Samsung-Galaxy-M12-Storage-Processor/dp/B08XGDN3TZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/a9a89c52?&amp;moreDeals=712b5d1a,f9fc2726,f14ebfbf&amp;showVariations=true</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/16b74e5a?showVariations=true</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/16978243031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=electronics&amp;bbn=976419031&amp;rh=p_6%3AA14CZOWI0VEHLG%2Cp_89%3ASony&amp;dc&amp;hidden-keywords=B094C4VDJZ%7CB0863TXGM3%7CB09PC695Q9%7CB09CG2P4Z2%7CB0961X3R2H%7CB084685MT1%7CB07T81554H%7CB0793HNSQG%7CB07864V1K1%7CB07WTX73MB%7CB085VQFZ91%7CB07S13PJ3W%7CB085VQFZ8Z%7CB0872G7SL9%7CB0817T8FB6%7CB015ZDGEQU%7CB0856M2T37%7CB0872F1TSV%7CB07QC2YJWG&amp;crid=EJWWV1NSWJN4&amp;qid=1651258635&amp;rnid=3837712031&amp;sprefix=b094c4vdjz+b0863txgm3+b09pc695q9+b09cg2p4z2+b0961x3r2h+b084685mt1+b07t81554h+b0793hnsqg+b07864v1k1+b07wtx73mb+b085vqfz91+b07s13pj3w+b085vqfz8z+b0872g7sl9+b0817t8fb6+b015zdgequ+b0856m2t37+b0872f1tsv+b07qc2yjwg+%2Celectronics%2C189&amp;</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/d7da2720?showVariations=true</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/e6cbaa1c</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/6d052906</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/1cbef988?moreDeals=,6f40afcb,690def02,ae2096f3,9df49bcb,eb176b8d,13271ca5,c222bcb0,5ff30373,c222bcb0</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/browse/?ie=UTF8&amp;node=28186132031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/17486198031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/b324aceb?showVariations=true&amp;moreDeals=6feb0d06,18497169,5137e8a3,e119a8fd,82c11846,7d700a00,b549083f,c96558d3,f106d764,178ca004,7ef78570,2d81ebb1,bc285093,50d005a3,d52858e6,2ba015f3,135d8ff8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/e20b1e39?showVariations=true&amp;moreDeals=dc1c638b,363979d4,722f968a,02fe2476,334f6223</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/7a654b44?showVariations=true</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/deal/ac7e4142</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pigeon-Stovekraft-Plastic-Chopper-Blades/dp/B01LWYDEQ7</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Status-Polyviscose-Mat-x23-Multicolour/dp/B01LXH98OZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Gala-Quick-Wheels-Bucket-Refills/dp/B06Y151YM4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AmazonBasics-Performance-Alkaline-Non-Rechargeable-Batteries/dp/B00O869KJE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/HIT-Anti-Mosquito-Racquet-Rechargeable/dp/B07S5FBY3J</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Cello-Checkers-Plastic-Canister-Pieces/dp/B01LYBZX6Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Spotzero-Milton-Stainless-Wringer-refills/dp/B07D4T4YT2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sheeba-SCAIO07-Multipurpose-Liquid-Polish/dp/B00TC5I66Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GM-Modular-3060-Book-Multicolour/dp/B008XT42JU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Armour-AR1100WB-1100-Watt-Soleplate-Purple/dp/B0883KDSXC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/AmazonBasics-Performance-Alkaline-Non-Rechargeable-Batteries/dp/B00O869QUC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Ajanta-Quartz-Clock-White-Silver/dp/B01N6OOW52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Scotch-Brite-Sponge-Wipe-5-Pcs/dp/B016VXORNA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Scotch-Brite-Heavy-Duty-Gloves-Medium/dp/B00NBM0WD4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JOPASU-Jopasu-Car-Duster/dp/B00RJQ8XHU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Ambi-Pur-Car-Freshener-Gel/dp/B08JH2JQMT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/eCraftIndia-Golden-Handcrafted-Polyresin-Showpiece/dp/B08G14SLLL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=petfood_May?node=26954011031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=May_Pet%20grooming?ie=UTF8&amp;node=26562435031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=26562434031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=toys?node=-26562722031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=Pets_GWQCPC_May?ie=UTF8&amp;node=2454181031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/20871486031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/20690838031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/9840097031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/l/12805339031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=ncemi_desktop_mayart_22?node=14072630031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=16180618031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=976460031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=4092116031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?rh=n%3A14152570031&amp;language=en_IN&amp;brr=1&amp;rd=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=976451031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=6628733031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=diapwipeqcrec?node=14805548031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=bathskinqcrec?node=21032399031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=babytravelqcrec?node=26471795031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=feedingqcrec?node=27366150031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=Pets_GWQCPC_May?ie=UTF8&amp;node=1571274031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28169922031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28169921031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1380441031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=gw_perc_rec_rewards?node=28165163031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/h/your-offers/?widgetParameters={%22filters%22:[{%22key%22:%22State%22,%22operator%22:%22eq%22,%22values%22:[%22Clipped%22]}],%22sorts%22:[{%22direction%22:%22desc%22,%22key%22:%22ClippedTimestamp%22,%22order%22:1}],%22resultSize%22:800,%22layoutType%22:1,%22title%22:%22apay-coupons-your-collected-offers%22,%22language%22:%22en_IN%22,%22topDynamicSlotStringForViewAllPage%22:%22collected-offers-counter-top-slots%22,%22bottomDynamicSlotStringForViewAllPage%22:%22collected-offers-counter-bottom-slots%22}&amp;ref=coupon_widget_viewmore</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/site-directory/ref=PCNav_fullstore</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_WL?ie=UTF8&amp;node=1389401031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_CEPC?ie=UTF8&amp;node=976419031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_OHL?ie=UTF8&amp;node=976442031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_LATV?ie=UTF8&amp;node=14907158031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_SL?ie=UTF8&amp;node=6648217031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_CONS?ie=UTF8&amp;node=14929320031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_MEDIA?ie=UTF8&amp;node=6628733031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_PB?ie=UTF8&amp;node=15390370031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=PCNav_DEVICES?ie=UTF8&amp;node=21703586031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/history</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/#nav-top</t>
+  </si>
+  <si>
+    <t>https://www.aboutamazon.in/?utm_source=gateway&amp;utm_medium=footer</t>
+  </si>
+  <si>
+    <t>https://amazon.jobs/</t>
+  </si>
+  <si>
+    <t>https://press.aboutamazon.in/?utm_source=gateway&amp;utm_medium=footer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=8872558031&amp;ref_=footer_cares</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=4594605031&amp;ref_=footer_smile</t>
+  </si>
+  <si>
+    <t>https://www.amazon.science/</t>
+  </si>
+  <si>
+    <t>http://www.amazon.in/gp/redirect.html/ref=footer_fb?location=http://www.facebook.com/AmazonIN&amp;token=2075D5EAC7BB214089728E2183FD391706D41E94&amp;6</t>
+  </si>
+  <si>
+    <t>http://www.amazon.in/gp/redirect.html/ref=footer_twitter?location=http://twitter.com/AmazonIN&amp;token=A309DFBFCB1E37A808FF531934855DC817F130B6&amp;6</t>
+  </si>
+  <si>
+    <t>http://www.amazon.in/gp/redirect.html?location=https://www.instagram.com/amazondotin&amp;token=264882C912E9D005CB1D9B61F12E125D5DF9BFC7&amp;source=standards</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?node=2838698031&amp;ld=AZINSOANavDesktopFooter&amp;ref_=nav_footer_sell</t>
+  </si>
+  <si>
+    <t>https://accelerator.amazon.in/?ref_=map_1_b2b_GW_FT</t>
+  </si>
+  <si>
+    <t>https://sell.amazon.in/grow-your-business/amazon-global-selling.html?ld=AZIN_Footer_V1&amp;ref=AZIN_Footer_V1</t>
+  </si>
+  <si>
+    <t>https://affiliate-program.amazon.in/?utm_campaign=assocshowcase&amp;utm_medium=footer&amp;utm_source=GW&amp;ref_=footer_assoc</t>
+  </si>
+  <si>
+    <t>http://services.amazon.in/services/fulfilment-by-amazon/benefits.html/ref=az_footer_fba?ld=AWRGINFBAfooter</t>
+  </si>
+  <si>
+    <t>https://advertising.amazon.in/?ref=Amz.in</t>
+  </si>
+  <si>
+    <t>https://www.amazonpay.in/merchant</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=GDFU3JS5AL6SYHRD&amp;ref_=footer_covid</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/homepage.html?ref_=footer_ya</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/css/returns/homepage.html?ref_=footer_hy_f_4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=201083470&amp;ref_=footer_swc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/browse.html?node=6967393031&amp;ref_=footer_mobapp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/BIT/theamazonapp/ref=footer_assistant_download_copy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200507590&amp;ref_=footer_gw_m_b_he</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ref=footer_logo</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/customer-preferences/edit?ie=UTF8&amp;preferencesReturnUrl=%2F&amp;ref_=footer_lang</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com.au/ref=footer_au</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.br/ref=footer_br</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ref=footer_ca</t>
+  </si>
+  <si>
+    <t>https://www.amazon.cn/ref=footer_cn</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/ref=footer_fr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ref=footer_de</t>
+  </si>
+  <si>
+    <t>https://www.amazon.it/ref=footer_it</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/ref=footer_jp</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.mx/ref=footer_mx</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/ref=footer_nl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/ref=footer_pl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.sg/ref=footer_sg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/ref=footer_es</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com.tr/ref=footer_tr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ae/ref=footer_ae</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/ref=footer_uk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ref=footer_us</t>
+  </si>
+  <si>
+    <t>https://www.abebooks.com/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/what-is-cloud-computing/?sc_channel=EL&amp;sc_campaign=IN_amazonfooter</t>
+  </si>
+  <si>
+    <t>https://www.audible.in/</t>
+  </si>
+  <si>
+    <t>https://www.dpreview.com/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopbop.com/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/business?ref=footer_aingw</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/now?ref=footer_amznow</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/music/prime?ref=footer_apm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200545940&amp;ref_=footer_cou</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=200534380&amp;ref_=footer_privacy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/help/customer/display.html?nodeId=202075050&amp;ref_=footer_iba</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/events/summersale/?_encoding=UTF8&amp;ref_=nav_swm_swm_gd&amp;pf_rd_p=0cf1df03-429e-4a44-b9d0-575895717b7f&amp;pf_rd_s=nav-sitewide-msg&amp;pf_rd_t=4201&amp;pf_rd_i=navbar-4201&amp;pf_rd_m=A21TJRUUN4KGV&amp;pf_rd_r=T5AKDH272NPBB05KA9D4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;ie=UTF8&amp;node=976460031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s/?_encoding=UTF8&amp;k=titan&amp;i=watches&amp;rh=n%3A1350387031%2Cp_89%3ATitan&amp;dc=&amp;qid=1651116911&amp;rnid=3837712031&amp;ref=sr_nr_p_89_1&amp;hidden-keywords=-sponsored%20-apparel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/?_encoding=UTF8&amp;node=28123180031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=976389031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=1350380031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=3150026031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=jupw3-pcqc-med-seeall?node=6628733031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/events/summersale/?_encoding=UTF8&amp;deals-widget=%257B%2522presetId%2522%3A%2522deals-collection-bbd%2522%257D&amp;pd_rd_w=ipyMp&amp;pf_rd_p=0e1073fa-bb95-4b62-ba88-70f071150b5a&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=3c756d0d-bc20-4cc0-899f-310a2d1c0961&amp;pd_rd_wg=AUqKT&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/events/summersale/?_encoding=UTF8&amp;deals-widget=%257B%2522presetId%2522%3A%2522deals-collection-td%2522%257D&amp;pd_rd_w=onuaM&amp;pf_rd_p=32ae6ce7-cd62-4635-8451-7155032d6802&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Scotch-Brite-Bucket-Spin-Green-Refills/dp/B07LDKFM2Y</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wipro-Monitoring-Appliances-Microwave-Conditioners/dp/B08HN9Q2SZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22962139031&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shelves-Decorative-Decoration-Floating-Bookshelf/dp/B09MS7S6SJ/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Handmade-Macrame-Compared-Stronger-Beautiful/dp/B09GVDS26M/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BM-WOOD-FURNITURE-Shelves-Floating/dp/B072DYG94F/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Luxury-Cabinet-Furniture-Living-Yellow/dp/B09TTFVWHJ/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/A10SHOP-Bookshelf-Storage-Installation-Included/dp/B08MYQZ8GM/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Aparios-Decorative-Hexagonal-Floating-Decoration/dp/B08XJRR3P8/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BSE-Multi-Purpose-Reading-Foldable-Non-Slip/dp/B09GT2P3R6/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/EBANSAL-Designer-Writing-Computer-Sheesham/dp/B08M3VZR8W/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/GRT-ARTS-Table-Nightstand-Furniture/dp/B09WJ48F95/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/sheesham-Floating-Nightstand-Mid-Century-Scandinavian/dp/B08LQ387VV/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Wooden-Bedside-Bedroom-Drawers-Living/dp/B093D5GWYS/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Genuine-Decor-Floating-Shelves-Bathroom/dp/B08MDZX9NR/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Green-Soul-GS-600-Recline-Ergonomic/dp/B07HLC8H9N/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Green-Soul-York-Superb-Ergonomic-Adjustable/dp/B09HHFN1C9/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Macrame-Hanging-Triangle-Floating-Bathroom/dp/B09NYP4RSG/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Furniture-Rosewood-Folding-Dining-Plain/dp/B06XK2C8GT/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/krishana-art-Sheesham-Students-Computer/dp/B08RDXD8WT/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Furniture-Simply-Designed-Sheesham-Bookshelf/dp/B072KVJ63R/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/TS-Sheesham-Bookcases-Cabinet-Storage/dp/B08ZK89JY8/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/DecorNation-Upholstered-Queen-Bed-Size/dp/B08L9NKJQP/?_encoding=UTF8&amp;pd_rd_w=sMBNW&amp;pf_rd_p=cf6c4bff-92a7-4901-831d-9a8eb5584dde&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28187571031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27407743031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27409060031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=28187573031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=2454178031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=22962139031&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kolorobia-Kalamkari-Finesse-Wooden-34x20x5/dp/B08283QFVG/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/nogaiya-Glass-Taquila-Whisky-Liquor/dp/B08BR6Y7QW/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bellaxia-Highball-Drinking-Lead-Free-Glassware/dp/B09QPKD8H7/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/STYLONIC-Tequila-Glasses-Liqueurs-Hexagone/dp/B08SK1TTBB/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Shikshapatri-Borosilicate-Wooden-Silicon-Transparent/dp/B096PMRXKN/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ATC-Enterprise-Wine-Decanter-Accessories/dp/B091GWR5M2/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/VIMICI-Highball-Glasses-Drinking-Whiskey/dp/B09TYWL5R3/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Platter-Ceramic-platters-Serving-Microwave/dp/B08JY9XYHC/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JASMEY-Art-Serveware-Ceramic-Platter/dp/B09SZG5N8K/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JASMEY-Coffee-Design-Microwave-Dishawasher/dp/B08JPVYVF8/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JASMEY-Ceramic-Coffee-Microwave-Dishawasher/dp/B08JQ3R93P/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JASMEY-HOMES-CHIP-Ocean-Plate/dp/B09RVBQ3WD/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Seedlings-India-Stoneware-Dinner-Set/dp/B08L8VBRT1/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Clayware-Ceramic-Hand-Painted-Microwave-Plates/dp/B09J3B2C5X/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/StyleMyWay-Pottery-Handpainted-Serving-Stackable/dp/B08P32GH61/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Boho-Hand-Painted-Appetizer-Microwave-2-TAE00123/dp/B09KHCC7YP/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Lyallpur-Stores-Ceramic-Microwave-Dishwasher/dp/B09K5KT4JK/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Namaste-Kitchen-Tableware-Porcelain-4-Plates/dp/B09CPS1MZT/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Amalfiee-Handmade-Neelkamal-Dinner-Plate/dp/B0949F2G7F/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/vaio-creation-Glass-Shot-Pieces/dp/B09NY7TZTM/?_encoding=UTF8&amp;pd_rd_w=oBxvR&amp;pf_rd_p=373f975a-e19d-46b9-8198-e4b38bd2d8a3&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=specialty-aps&amp;srs=28123792031&amp;rh=n%3A28123792031&amp;fs=true&amp;ref=lp_28123792031_sar&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BONACE-Waterproof-Dustproof-Indicator-Operating/dp/B09L7T99KS/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Construction-Airflow-360%C2%B0Adjustable-Personal-Cooling/dp/B098WRXXGL/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ZENUSS-Blender-Electric-Whipping-Kitchen/dp/B09XMM4WK8/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Verilux%C2%AE-Function-Calculator-Calculators-Calculating/dp/B099RS1891/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/iClever-HS23-Headphones-Tangle-Free-Smartphones/dp/B09N3HZ6HN/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Controller-Charging-DualShock-Playstation-Playstation4/dp/B09LV282FH/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Aquarium-Aquascaping-Stainless-Tweezers-Aquascape/dp/B09KLNKH1R/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Polygon-Polarized-Protected-Sunglasses-Photochromic/dp/B09TR34T15/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/EKSA-GT1-Wireless-Playtime-Waterproof/dp/B09QMGW9FD/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PALAY-Leather-Wallets-Credit-Stylish/dp/B07VQYMCJX/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Verilux%C2%AE-Colorful-Bedroom-Livingroom-Gamingroom/dp/B09G2DJ8R6/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Honeywell-V10-Bluetooth-Headphones-Headphone/dp/B09K7SP1T5/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Tribit-Headphones-Headsets-Compatible-Smartphones/dp/B09LV7LGF4/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/MAYCREATE%C2%AE-Tattoo-Machine-Supply-Disposable/dp/B09WZVPB31/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PALAY%C2%AE-Prints-School-Backpack-Students/dp/B09V821Q8S/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Square-Polarized-Sunglasses-Women-Golden/dp/B09LLKYMKQ/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kodak-Compatible-Bluetooth-Technology-Pack/dp/B09B7F4RFP/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PALAY-Unisex-Crystal-Tiara-Rhinestones/dp/B08P5HX731/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Crystal-Headband-Princess-Elegant-Birthday/dp/B07Z7WJB74/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/BACKGAMMON-Cactus-Toy-Charging-Recording/dp/B09SPPKKKY/?_encoding=UTF8&amp;pd_rd_w=gcm87&amp;pf_rd_p=88f0eb31-04e9-4951-b4ea-4d83219d7d4f&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=May'22ART_BGC_CC?node=6681889031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?node=27009145031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=2454181031&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Adult-Food-Chicken-Vegetables/dp/B078XXNPM3/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Chappi-Adult-Food-Chicken-Rice/dp/B00TIOQRPG/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Royal-Canin-02RCMAXJ4-Maxi-Puppy/dp/B002G0MSZ2/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Whiskas-Adult-Food-Ocean-flavour/dp/B007KGB03I/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Adult-Food-Meat-Rice/dp/B00LHS8XD0/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Whiskas-Kitten-months-Ocean-Flavour/dp/B07WJNGBSP/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Adult-Food-Chicken-Vegetables/dp/B00LHS8I3A/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Puppy-Food-Chicken-Milk/dp/B00LHS8PZG/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Adult-Chicken-Liver-Chunks/dp/B0849982T8/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Whiskas-Adult-Food-Ocean-flavour/dp/B00LHULUTM/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Whiskas-Adult-Food-Tuna-Flavour/dp/B00IB7QWUG/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PEDIGREE-Adult-Food-Chicken-Vegetables/dp/B083HK9JZH/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Royal-Canin-Maxi-Junior-15/dp/B001AW1R1S/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Drools-Absolute-Calcium-Bone-Supplement/dp/B07JQJFCS2/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Drools-Chicken-Adult-Food-Free/dp/B07HBMB3WW/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Royal-Canin-Persian-Adult-30/dp/B000T5N94A/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Puppy-Food-Chicken-Milk/dp/B00LHS8MX6/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Purepet-Adult-Food-Chicken-Vegetable/dp/B075PHPK27/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Whiskas-Adult-Food-Tuna-flavour/dp/B005LA8RH2/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Meatup-Chicken-Flavour-Biscuit-Treats/dp/B079T88XLM/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Pedigree-Puppy-Chicken-Chunks-Gravy/dp/B08499CRPF/?_encoding=UTF8&amp;pd_rd_w=4AZFM&amp;pf_rd_p=d484b435-be7e-4072-b6c8-f9ad04faee7e&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b?ie=UTF8&amp;node=13777229031&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Surf-Excel-Easy-Detergent-Powder/dp/B00SMP20MG/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/VIM-Dishwash-Liquid-Lemon-Refill/dp/B08CNMBJZ7/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Fast-Vitalize-Effervescent-Multivitamin-Tablets/dp/B078S3LPRZ/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Kapiva-Himalayan-Shilajit-Endurance-Stamina/dp/B09BZNDYT2/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bigmuscles-Nutrition-Crude-Whey-Concentrate/dp/B07Z4DJ99S/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Colgate-Strong-Anticavity-Toothpaste-Shakti/dp/B082LDRTD1/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Hygienix-Anti-Bacterial-Handwash-Refill-750ml/dp/B08D86C4LX/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Tide-Extra-Detergent-Washing-Powder/dp/B079QBSYSX/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Surf-Excel-Front-Liquid-Detergent/dp/B07F889J16/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Zandu-Kesari-Jivan-900-g/dp/B00XRMM2DG/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bigmuscles-Nutrition-Essential-Chocolate-Digestive/dp/B09P8KS4XD/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sirona-Approved-Reusable-Menstrual-Silicone/dp/B07548J9WC/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Cadbury-Bournvita-Chocolate-Health-Drink/dp/B07FS7C7B8/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Horlicks-Health-Nutrition-drink-Classic/dp/B006QQRK96/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Plush-Cotton-Ultra-Thin-Heavy-Liners/dp/B07WGJYWW1/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Bombay-Shaving-Company-Facial-Removal/dp/B08PCPMXVS/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Oral-B-Ultrathin-Sensitive-Toothbrush-Piece/dp/B06XCZ68K6/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Colgate-Whitening-Toothpaste-Aromatic-Technology/dp/B09QSBPKTF/?_encoding=UTF8&amp;pd_rd_w=skd9x&amp;pf_rd_p=7ea63eae-2d1f-4df9-a2bb-11075504aac6&amp;pf_rd_r=T5AKDH272NPBB05KA9D4&amp;pd_rd_r=28cf6632-562c-408a-b0c3-290d6294dc22&amp;pd_rd_wg=7vv8Z&amp;ref_=pd_gw_unk</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=pbTV?node=22817284031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=kitchen&amp;bbn=1380263031&amp;rh=n%3A1380263031%2Cp_n_format_browse-bin%3A19560794031%2Cp_n_specials_match%3A21618256031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/b/ref=pbfurniture?ie=UTF8&amp;node=21840547031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=kitchen&amp;bbn=4951860031&amp;rh=n%3A4951860031%2Cp_n_is_private_label%3A16184648031%2Cp_n_specials_match%3A21618256031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=electronics&amp;bbn=1389401031&amp;rh=n%3A976419031%2Cn%3A1389401031%2Cn%3A1389432031%2Cp_36%3A1318505031</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=electronics&amp;bbn=1389432031&amp;rh=n%3A976419031%2Cn%3A1389401031%2Cn%3A1389432031%2Cn%3A1805560031%2Cp_36%3A1000000-2500000%22,%22mediaCentralPath%22:%22/img21/Wireless/Shivani/MayART/D44279625__MayART_IN_WLD_Desktop_QC_CC_IS_Mob_CC_logotile_2ASIN_tiles__420x420_QC6.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=electronics&amp;bbn=1389432031&amp;rh=n%3A976419031%2Cn%3A1389401031%2Cn%3A1389432031%2Cn%3A1805560031%2Cp_36%3A2500000-4000000</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/s?i=electronics&amp;bbn=1389432031&amp;rh=n%3A976419031%2Cn%3A1389401031%2Cn%3A1389432031%2Cn%3A1805560031%2Cp_36%3A4000000-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,12 +1159,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,14 +1191,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -140,6 +1286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -174,6 +1321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -349,16 +1497,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -367,24 +1556,2049 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B384"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
